--- a/Selenium_Java_Tutorial_V3_141_59/src/Syllabus.xlsx
+++ b/Selenium_Java_Tutorial_V3_141_59/src/Syllabus.xlsx
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
